--- a/outputs-HGR-r202-archive/g__Mediterraneibacter.xlsx
+++ b/outputs-HGR-r202-archive/g__Mediterraneibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,73 +740,73 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84184.fa</t>
+          <t>even_MAG-GUT91407.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6007708995035013</v>
+        <v>0.001461489662995938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3221172678706061</v>
+        <v>0.9797844477088974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06016143424551999</v>
+        <v>0.01355875710348859</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002851028692832954</v>
+        <v>4.254145739701983e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008479315059679233</v>
+        <v>0.003153571371794068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005705642079484917</v>
+        <v>0.0006316998819315338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002480338371925485</v>
+        <v>0.001367492813495571</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6007708995035013</v>
+        <v>0.9797844477088974</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__Mediterraneibacter faecis</t>
+          <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>s__Mediterraneibacter faecis(reject)</t>
+          <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91407.fa</t>
+          <t>even_MAG-GUT9594.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001461489662995938</v>
+        <v>0.04088075404878964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9797844477088974</v>
+        <v>0.943553438065695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01355875710348859</v>
+        <v>0.009670673777180314</v>
       </c>
       <c r="E9" t="n">
-        <v>4.254145739701983e-05</v>
+        <v>2.802976300367847e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003153571371794068</v>
+        <v>0.003909501671682811</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006316998819315338</v>
+        <v>0.001442793209481713</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001367492813495571</v>
+        <v>0.0005148094641668515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9797844477088974</v>
+        <v>0.943553438065695</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -814,47 +814,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>s__Mediterraneibacter lactaris</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9594.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04088075404878964</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.943553438065695</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.009670673777180314</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.802976300367847e-05</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.003909501671682811</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.001442793209481713</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0005148094641668515</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.943553438065695</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Mediterraneibacter lactaris</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>s__Mediterraneibacter lactaris</t>
         </is>
